--- a/бумажки на диплом/иследовательская часть/Книга1.xlsx
+++ b/бумажки на диплом/иследовательская часть/Книга1.xlsx
@@ -378,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -408,6 +408,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -415,15 +419,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,6 +435,6463 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>NOx</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.46926158215159264"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1914260717410323E-2"/>
+          <c:y val="6.0185207124966146E-2"/>
+          <c:w val="0.82115107187389302"/>
+          <c:h val="0.84167462878194399"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 впрыск</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Лист1!$L$3,Лист1!$L$6,Лист1!$L$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Лист1!$N$3,Лист1!$N$6,Лист1!$N$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2422</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2649</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2068</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D384-4435-A874-8DA39BF3B7A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2 впрыска</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Лист1!$L$4,Лист1!$L$7,Лист1!$L$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Лист1!$N$4,Лист1!$N$7,Лист1!$N$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1543</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1681</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D384-4435-A874-8DA39BF3B7A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3 впрыска</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Лист1!$L$5,Лист1!$L$8,Лист1!$L$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Лист1!$N$5,Лист1!$N$8,Лист1!$N$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1319</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1472</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D384-4435-A874-8DA39BF3B7A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="286455360"/>
+        <c:axId val="286457000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="286455360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="75"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>P</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>АК, МПа</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.93013707076812047"/>
+              <c:y val="0.89962689635442317"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="286457000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="286457000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>NOx, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>млн-1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.0999449762620914E-2"/>
+              <c:y val="4.6717551446913298E-3"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="t" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="286455360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12268542330089743"/>
+          <c:y val="0.29050226865065848"/>
+          <c:w val="0.11665076585125875"/>
+          <c:h val="0.29453496727183104"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>PM</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.46926158215159264"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1914260717410323E-2"/>
+          <c:y val="6.0185207124966146E-2"/>
+          <c:w val="0.82115107187389302"/>
+          <c:h val="0.84167462878194399"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 впрыск</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Лист1!$L$3,Лист1!$L$6,Лист1!$L$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Лист1!$O$3,Лист1!$O$6,Лист1!$O$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A05D-4F5B-8CE1-AACDED3C4C15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2 впрыска</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Лист1!$L$4,Лист1!$L$7,Лист1!$L$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Лист1!$O$4,Лист1!$O$7,Лист1!$O$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A05D-4F5B-8CE1-AACDED3C4C15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3 впрыска</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Лист1!$L$5,Лист1!$L$8,Лист1!$L$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Лист1!$O$5,Лист1!$O$8,Лист1!$O$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A05D-4F5B-8CE1-AACDED3C4C15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="286455360"/>
+        <c:axId val="286457000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="286455360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="75"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>P</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>АК, МПа</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.93013707076812047"/>
+              <c:y val="0.89962689635442317"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="286457000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="286457000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>PM, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>г/кВТ*Ч</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.0999449762620914E-2"/>
+              <c:y val="4.6717551446913298E-3"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="t" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="286455360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>CO2</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.46926158215159264"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1914260717410323E-2"/>
+          <c:y val="6.0185207124966146E-2"/>
+          <c:w val="0.82115107187389302"/>
+          <c:h val="0.84167462878194399"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 впрыск</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Лист1!$L$3,Лист1!$L$6,Лист1!$L$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Лист1!$P$3,Лист1!$P$6,Лист1!$P$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>766</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>769</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>773</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-69A0-457F-AFCB-81A056A7C5B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2 впрыска</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Лист1!$L$4,Лист1!$L$7,Лист1!$L$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Лист1!$P$4,Лист1!$P$7,Лист1!$P$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>787</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-69A0-457F-AFCB-81A056A7C5B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3 впрыска</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Лист1!$L$5,Лист1!$L$8,Лист1!$L$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Лист1!$P$5,Лист1!$P$8,Лист1!$P$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>787</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>769</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-69A0-457F-AFCB-81A056A7C5B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="286455360"/>
+        <c:axId val="286457000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="286455360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="75"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>P</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>АК, МПа</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.93013707076812047"/>
+              <c:y val="0.89962689635442317"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="286457000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="286457000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CO2, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>г/кВТ*Ч</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.0999449762620914E-2"/>
+              <c:y val="4.6717551446913298E-3"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="t" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="286455360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.61982688198769464"/>
+          <c:y val="9.687432644244108E-2"/>
+          <c:w val="0.28111861684538714"/>
+          <c:h val="0.29453496727183104"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>NOx</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>100,1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2422</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F0A8-464E-8BD9-E81945CB72BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>100,2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1345</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F0A8-464E-8BD9-E81945CB72BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>100,3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1319</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F0A8-464E-8BD9-E81945CB72BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>пропуск</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F0A8-464E-8BD9-E81945CB72BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>150,1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2649</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-F0A8-464E-8BD9-E81945CB72BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>150,2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1543</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-F0A8-464E-8BD9-E81945CB72BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>150,3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1472</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-F0A8-464E-8BD9-E81945CB72BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>пропуск2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-F0A8-464E-8BD9-E81945CB72BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>1 впрыск</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2068</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-F0A8-464E-8BD9-E81945CB72BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>2 впрыска</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1681</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-F0A8-464E-8BD9-E81945CB72BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>3 впрыска</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-F0A8-464E-8BD9-E81945CB72BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="229177096"/>
+        <c:axId val="229177424"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="229177096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>100</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>                            </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>150	             200                   </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>P</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>АК, МПа</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>    </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.22888714412316008"/>
+              <c:y val="0.91050840710030456"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="229177424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="229177424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2700"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>NOx, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>млн-1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="229177096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="300"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PM</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$O$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F7D0-42BB-9D81-F339E2F53F58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F7D0-42BB-9D81-F339E2F53F58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F7D0-42BB-9D81-F339E2F53F58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>пропуск</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F7D0-42BB-9D81-F339E2F53F58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.13400000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F7D0-42BB-9D81-F339E2F53F58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F7D0-42BB-9D81-F339E2F53F58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F7D0-42BB-9D81-F339E2F53F58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>пропуск2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-F7D0-42BB-9D81-F339E2F53F58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>1 впрыск</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$O$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-F7D0-42BB-9D81-F339E2F53F58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>2 впрыска</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-F7D0-42BB-9D81-F339E2F53F58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>3 впрыска</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-F7D0-42BB-9D81-F339E2F53F58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="229177096"/>
+        <c:axId val="229177424"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="229177096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>100</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>                            </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>150	                   200                   </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>P</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>АК, МПа</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>    </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.2407719309409663"/>
+              <c:y val="0.91050840710030456"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="229177424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="229177424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.60000000000000009"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>PM, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>г/кВТ*Ч</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="229177096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,16 +6974,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>125506</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>26892</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>215153</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>134467</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>216208</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>75077</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>305855</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>3358</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -548,7 +7000,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6221506" y="5325033"/>
+          <a:off x="824753" y="9430867"/>
           <a:ext cx="4967502" cy="2558303"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -556,6 +7008,162 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>349622</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>53789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>439271</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>448237</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>331694</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>421343</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600635</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>26895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466165</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -827,13 +7435,14 @@
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:18" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -874,8 +7483,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
       <c r="B3" s="4">
@@ -896,7 +7505,7 @@
       <c r="G3" s="6">
         <v>4.8499999999999996</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="16">
         <v>100</v>
       </c>
       <c r="M3" s="12">
@@ -918,8 +7527,8 @@
         <v>4.8499999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="19"/>
       <c r="B4" s="7">
         <v>150</v>
       </c>
@@ -938,7 +7547,9 @@
       <c r="G4" s="8">
         <v>5.72</v>
       </c>
-      <c r="L4" s="20"/>
+      <c r="L4" s="16">
+        <v>100</v>
+      </c>
       <c r="M4" s="13">
         <v>2</v>
       </c>
@@ -959,7 +7570,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="9">
         <v>200</v>
       </c>
@@ -978,7 +7589,9 @@
       <c r="G5" s="11">
         <v>6.28</v>
       </c>
-      <c r="L5" s="21"/>
+      <c r="L5" s="16">
+        <v>100</v>
+      </c>
       <c r="M5" s="14">
         <v>3</v>
       </c>
@@ -998,8 +7611,8 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18">
         <v>2</v>
       </c>
       <c r="B6" s="4">
@@ -1020,7 +7633,7 @@
       <c r="G6" s="6">
         <v>2.46</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="16">
         <v>150</v>
       </c>
       <c r="M6" s="12">
@@ -1042,8 +7655,8 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="19"/>
       <c r="B7" s="7">
         <v>150</v>
       </c>
@@ -1062,7 +7675,9 @@
       <c r="G7" s="8">
         <v>2.62</v>
       </c>
-      <c r="L7" s="20"/>
+      <c r="L7" s="16">
+        <v>150</v>
+      </c>
       <c r="M7" s="13">
         <v>2</v>
       </c>
@@ -1083,7 +7698,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="9">
         <v>200</v>
       </c>
@@ -1102,7 +7717,9 @@
       <c r="G8" s="11">
         <v>3.68</v>
       </c>
-      <c r="L8" s="21"/>
+      <c r="L8" s="16">
+        <v>150</v>
+      </c>
       <c r="M8" s="14">
         <v>3</v>
       </c>
@@ -1122,8 +7739,8 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
+    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="18">
         <v>3</v>
       </c>
       <c r="B9" s="4">
@@ -1144,7 +7761,7 @@
       <c r="G9" s="6">
         <v>2.02</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="16">
         <v>200</v>
       </c>
       <c r="M9" s="12">
@@ -1166,8 +7783,8 @@
         <v>6.28</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
+    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="19"/>
       <c r="B10" s="7">
         <v>150</v>
       </c>
@@ -1186,7 +7803,9 @@
       <c r="G10" s="8">
         <v>2.27</v>
       </c>
-      <c r="L10" s="20"/>
+      <c r="L10" s="16">
+        <v>200</v>
+      </c>
       <c r="M10" s="13">
         <v>2</v>
       </c>
@@ -1207,7 +7826,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="9">
         <v>200</v>
       </c>
@@ -1226,7 +7845,9 @@
       <c r="G11" s="11">
         <v>2.92</v>
       </c>
-      <c r="L11" s="21"/>
+      <c r="L11" s="16">
+        <v>200</v>
+      </c>
       <c r="M11" s="14">
         <v>3</v>
       </c>
@@ -1262,13 +7883,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="3">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="L9:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
